--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -27,21 +27,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>日期</t>
+    <t>月份</t>
   </si>
   <si>
-    <t>用户数</t>
+    <t>收入</t>
   </si>
   <si>
-    <t>1号</t>
+    <t>1月</t>
   </si>
   <si>
-    <t>2号</t>
+    <t>2月</t>
   </si>
   <si>
-    <t>3号</t>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>5月</t>
+  </si>
+  <si>
+    <t>6月</t>
+  </si>
+  <si>
+    <t>7月</t>
+  </si>
+  <si>
+    <t>8月</t>
+  </si>
+  <si>
+    <t>9月</t>
+  </si>
+  <si>
+    <t>10月</t>
   </si>
 </sst>
 </file>
@@ -1016,13 +1037,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8" outlineLevelCol="3"/>
   <cols>
     <col min="4" max="4" width="10.7760416666667" style="1"/>
   </cols>
@@ -1042,9 +1063,8 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2"/>
+        <v>2500</v>
+      </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:2">
@@ -1052,7 +1072,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1060,7 +1080,63 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>5360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>5555</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView windowWidth="8687" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,42 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>月份</t>
+    <t>year</t>
   </si>
   <si>
-    <t>收入</t>
+    <t>month</t>
   </si>
   <si>
-    <t>1月</t>
-  </si>
-  <si>
-    <t>2月</t>
-  </si>
-  <si>
-    <t>3月</t>
-  </si>
-  <si>
-    <t>4月</t>
-  </si>
-  <si>
-    <t>5月</t>
-  </si>
-  <si>
-    <t>6月</t>
-  </si>
-  <si>
-    <t>7月</t>
-  </si>
-  <si>
-    <t>8月</t>
-  </si>
-  <si>
-    <t>9月</t>
-  </si>
-  <si>
-    <t>10月</t>
+    <t>people</t>
   </si>
 </sst>
 </file>
@@ -1037,10 +1010,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8" outlineLevelCol="3"/>
@@ -1055,88 +1028,164 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>2023</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>5300</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2023</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>2500</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="C3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2023</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="C4">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>2023</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>4568</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="C5">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>2023</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="C6">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>2023</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="C7">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>2023</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="C8">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>2023</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="C9">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>2023</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="C10">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>2023</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>5360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="C11">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>2023</v>
+      </c>
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>5555</v>
+      <c r="C12">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>2023</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>2024</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>2024</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>6300</v>
       </c>
     </row>
   </sheetData>
